--- a/data/trans_bre/P1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>190,68%</t>
+          <t>195,83%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,96</t>
+          <t>0,43; 11,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 1116,77</t>
+          <t>-13,57; 1173,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>181,84%</t>
+          <t>141,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,95</t>
+          <t>0,02; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 720,48</t>
+          <t>-7,46; 612,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,74</t>
+          <t>-2,93; 2,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 65,61</t>
+          <t>-36,74; 63,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>84,09%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,74</t>
+          <t>0,74; 8,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 139,22</t>
+          <t>7,98; 325,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,34%</t>
+          <t>75,65%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,86</t>
+          <t>2,55; 8,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 149,3</t>
+          <t>27,06; 150,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>139,58%</t>
+          <t>155,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>100,77%</t>
+          <t>29,08%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,51</t>
+          <t>-3,18; 7,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 16,5</t>
+          <t>4,83; 16,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,32</t>
+          <t>7,83; 19,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,09</t>
+          <t>-5,82; 8,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 58,26</t>
+          <t>-21,19; 70,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,05; 119,54</t>
+          <t>30,74; 179,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,78; 213,45</t>
+          <t>66,89; 304,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,09; 157,54</t>
+          <t>-58,38; 115,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>106,66%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>100,97%</t>
+          <t>117,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>126,32%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,13; 8,27</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 19,21</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 21,13</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 18,8</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-25,25; 61,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 106,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>54,28; 214,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>70,08; 203,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55,67%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>106,66%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100,97%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>87,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,08; 4,7</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,11; 8,98</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,64; 7,54</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 6,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 6,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>31,78; 87,28</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>78,56; 141,47</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>69,69; 139,29</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>55,22; 122,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48,23; 139,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,26</t>
+          <t>-1,96; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,06</t>
+          <t>0,14; 4,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,07</t>
+          <t>-1,53; 3,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 11,35</t>
+          <t>0,32; 10,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 160,54</t>
+          <t>-55,39; 146,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 399,81</t>
+          <t>0,16; 401,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 228,94</t>
+          <t>-47,22; 246,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 1173,94</t>
+          <t>-21,74; 1128,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,67</t>
+          <t>1,64; 6,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,16</t>
+          <t>0,2; 4,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,72</t>
+          <t>-2,23; 2,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,77</t>
+          <t>-0,18; 6,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,44; 273,11</t>
+          <t>34,32; 292,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 253,82</t>
+          <t>2,24; 268,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 86,69</t>
+          <t>-40,44; 84,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 612,45</t>
+          <t>-28,47; 564,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,06; 5,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,1</t>
+          <t>3,18; 9,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,88</t>
+          <t>-0,43; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,68</t>
+          <t>-3,04; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 170,09</t>
+          <t>-2,27; 173,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,55; 212,29</t>
+          <t>39,06; 210,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 132,91</t>
+          <t>-7,58; 141,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 63,86</t>
+          <t>-39,65; 61,32</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,29</t>
+          <t>1,37; 8,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,4</t>
+          <t>3,2; 10,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,72</t>
+          <t>0,01; 6,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,37</t>
+          <t>1,08; 8,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 163,5</t>
+          <t>16,78; 181,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 193,6</t>
+          <t>37,92; 195,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 121,36</t>
+          <t>-0,97; 116,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 325,29</t>
+          <t>14,08; 334,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,62</t>
+          <t>-1,58; 7,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 16,1</t>
+          <t>5,94; 15,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,26</t>
+          <t>6,49; 15,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,84</t>
+          <t>2,66; 8,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 104,13</t>
+          <t>-14,5; 113,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,16; 212,27</t>
+          <t>49,56; 207,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,29; 294,51</t>
+          <t>70,35; 283,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,06; 150,33</t>
+          <t>27,5; 152,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 7,03</t>
+          <t>-3,19; 7,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 16,87</t>
+          <t>4,9; 16,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 19,13</t>
+          <t>8,27; 18,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 8,31</t>
+          <t>-4,97; 8,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 70,4</t>
+          <t>-22,49; 73,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,74; 179,99</t>
+          <t>31,8; 184,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,89; 304,0</t>
+          <t>71,65; 298,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,38; 115,13</t>
+          <t>-53,41; 117,01</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 8,27</t>
+          <t>-5,54; 8,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 19,21</t>
+          <t>4,14; 18,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 21,13</t>
+          <t>8,68; 22,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,07; 18,8</t>
+          <t>10,49; 19,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 61,99</t>
+          <t>-25,28; 66,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,86; 106,0</t>
+          <t>14,62; 108,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>54,28; 214,63</t>
+          <t>58,37; 235,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>70,08; 203,02</t>
+          <t>72,35; 206,95</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,98</t>
+          <t>5,9; 9,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,54</t>
+          <t>4,74; 7,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,75</t>
+          <t>2,87; 6,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>29,8; 85,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>78,56; 141,47</t>
+          <t>75,82; 139,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,69; 139,29</t>
+          <t>71,81; 138,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,23; 139,58</t>
+          <t>49,35; 139,21</t>
         </is>
       </c>
     </row>
